--- a/biology/Zoologie/Arkys_bulburinensis/Arkys_bulburinensis.xlsx
+++ b/biology/Zoologie/Arkys_bulburinensis/Arkys_bulburinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arkys bulburinensis est une espèce d'araignées aranéomorphes de la famille des Arkyidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arkys bulburinensis est une espèce d'araignées aranéomorphes de la famille des Arkyidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre en Nouvelle-Galles du Sud et au Queensland.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 2,8 mm de long sur 2,4 mm et l'abdomen 3,4 mm de long sur 2,1 mm et la carapace de la femelle paratype mesure 2,8 mm de long sur 2,4 mm et l'abdomen 5,7 mm de long sur 4,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 2,8 mm de long sur 2,4 mm et l'abdomen 3,4 mm de long sur 2,1 mm et la carapace de la femelle paratype mesure 2,8 mm de long sur 2,4 mm et l'abdomen 5,7 mm de long sur 4,5 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de bulburin et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la forêt d'État de Bulburin.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Heimer, 1984 : Remarks on the spider genus Arcys Walckenaer, 1837, with description of new species (Araneae, Mimetidae). Entomologische Abhandlungen, Staatliches Museum für Tierkunde Dresden, vol. 47, p. 155-178.</t>
         </is>
